--- a/Question_Set2/Role-specific skills/WordPress Administration.xlsx
+++ b/Question_Set2/Role-specific skills/WordPress Administration.xlsx
@@ -16,23 +16,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "What's the default URL for accessing the back end of a WordPress site?", 'ques_type': 2, 'options': ['www.url.com/wp-backend', 'www.url.com/wp-login', 'www.url.com/wpadmin', 'www.url.com/wp-admin'], 'score': 'www.url.com/wp-admin'}, {'title': 'What gets stored in the revisions of a post?', 'ques_type': 15, 'options': ['Comments from the editors of the post', 'Saved draft changes', 'An autosave of the post created every 10 minutes while it’s being edited', 'Published updates', 'The content in plain text format, without images'], 'score': ['Saved draft changes', 'Published updates']}, {'title': 'You’re creating a post and want to highlight some text, as seen below. Which block should you use?', 'ques_type': 2, 'options': ['Preformatted', 'Paragraph', 'Quote', 'Heading'], 'score': 'Quote'}, {'title': 'What can be added to a menu?', 'ques_type': 15, 'options': ['Pages', 'Categories', 'Blocks', 'Widgets', 'Plugins'], 'score': ['Pages', 'Categories']}]</t>
+    <t>questions = [
+    {
+        "title": "What's the default URL for accessing the back end of a WordPress site?",
+        "ques_type": 2,
+        "options": [
+            "www.url.com/wp-backend",
+            "www.url.com/wp-login",
+            "www.url.com/wpadmin",
+            "www.url.com/wp-admin"
+        ],
+        "score": "www.url.com/wp-admin"
+    },
+    {
+        "title": "What gets stored in the revisions of a post?",
+        "ques_type": 15,
+        "options": [
+            "Comments from the editors of the post",
+            "Saved draft changes",
+            "An autosave of the post created every 10 minutes while it\u2019s being edited",
+            "Published updates",
+            "The content in plain text format, without images"
+        ],
+        "score": [
+            "Saved draft changes",
+            "Published updates"
+        ]
+    },
+    {
+        "title": "You\u2019re creating a post and want to highlight some text, as seen below. Which block should you use?",
+        "ques_type": 2,
+        "options": [
+            "Preformatted",
+            "Paragraph",
+            "Quote",
+            "Heading"
+        ],
+        "score": "Quote"
+    },
+    {
+        "title": "What can be added to a menu?",
+        "ques_type": 15,
+        "options": [
+            "Pages",
+            "Categories",
+            "Blocks",
+            "Widgets",
+            "Plugins"
+        ],
+        "score": [
+            "Pages",
+            "Categories"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +101,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +401,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
